--- a/biology/Botanique/Bûche_roulante/Bûche_roulante.xlsx
+++ b/biology/Botanique/Bûche_roulante/Bûche_roulante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%BBche_roulante</t>
+          <t>Bûche_roulante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bûche roulante[1] est une épreuve sportive au Canada et aux États-Unis dont le but est de rester debout le plus longtemps possible sur un billot de bois qui flotte sur l'eau. La drave est à l'origine de ce sport.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bûche roulante est une épreuve sportive au Canada et aux États-Unis dont le but est de rester debout le plus longtemps possible sur un billot de bois qui flotte sur l'eau. La drave est à l'origine de ce sport.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%BBche_roulante</t>
+          <t>Bûche_roulante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux personnes se tiennent debout sur un long billot de bois au milieu d’un bassin d'eau. Dès qu'ils lâchent le manche ou la perche qui les aide à garder leur équilibre, chacun des participants fait tourner le billot qui se met à rouler à toute vitesse sous leurs pieds. 
-Ils peuvent faire changer le sens de rotation du billot, se jeter de l'eau. Le premier qui tombe à l'eau par déséquilibre, perd[2].
+Ils peuvent faire changer le sens de rotation du billot, se jeter de l'eau. Le premier qui tombe à l'eau par déséquilibre, perd.
 </t>
         </is>
       </c>
